--- a/medicine/Mort/Monument_aux_morts_de_Commentry/Monument_aux_morts_de_Commentry.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Commentry/Monument_aux_morts_de_Commentry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts de Commentry est situé dans le département de l'Allier et la région Auvergne. 
-Il a été réalisé par le sculpteur Félix-Alexandre Desruelles. Il représente un paysan découvrant dans son champ la tombe d’un soldat. L'homme se recueille, appuyé sur une faux. Il est inscrit sur le monument « La ville de Commentry à ses enfants victimes de la guerre »[1]. Ce monument peut être considéré comme un monument aux morts pacifiste[2].
+Il a été réalisé par le sculpteur Félix-Alexandre Desruelles. Il représente un paysan découvrant dans son champ la tombe d’un soldat. L'homme se recueille, appuyé sur une faux. Il est inscrit sur le monument « La ville de Commentry à ses enfants victimes de la guerre ». Ce monument peut être considéré comme un monument aux morts pacifiste.
 </t>
         </is>
       </c>
